--- a/spliced/walkingToRunning/2023-03-26_17-11-18/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-11-18/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.217567012860227</v>
+        <v>-0.7247905336188185</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.8785987887862</v>
+        <v>-24.30215097461226</v>
       </c>
       <c r="C2" t="n">
-        <v>2.25199632955022</v>
+        <v>-0.4334598116620501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9202353192504198</v>
+        <v>0.9856911530861703</v>
       </c>
       <c r="B3" t="n">
-        <v>-13.56062749151649</v>
+        <v>-27.7952582342386</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.717396190180546</v>
+        <v>-10.58349611914382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.59089219358541</v>
+        <v>-1.217567012860227</v>
       </c>
       <c r="B4" t="n">
-        <v>-11.35514022330562</v>
+        <v>-15.8785987887862</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3842343388224623</v>
+        <v>2.25199632955022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.46794862013592</v>
+        <v>0.9202353192504198</v>
       </c>
       <c r="B5" t="n">
-        <v>-12.58473284569012</v>
+        <v>-13.56062749151649</v>
       </c>
       <c r="C5" t="n">
-        <v>5.044853869274501</v>
+        <v>-2.717396190180546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.344646702151348</v>
+        <v>11.59089219358541</v>
       </c>
       <c r="B6" t="n">
-        <v>-15.18862899802845</v>
+        <v>-11.35514022330562</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.453918620679495</v>
+        <v>-0.3842343388224623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.965254491602879</v>
+        <v>22.46794862013592</v>
       </c>
       <c r="B7" t="n">
-        <v>-16.62569452319625</v>
+        <v>-12.58473284569012</v>
       </c>
       <c r="C7" t="n">
-        <v>4.355243773150008</v>
+        <v>5.044853869274501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.611347477816996</v>
+        <v>3.344646702151348</v>
       </c>
       <c r="B8" t="n">
-        <v>-15.73287558132374</v>
+        <v>-15.18862899802845</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8439290142623932</v>
+        <v>-5.453918620679495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.01500372914868</v>
+        <v>-2.965254491602879</v>
       </c>
       <c r="B9" t="n">
-        <v>-25.76902237164192</v>
+        <v>-16.62569452319625</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.39586599902989</v>
+        <v>4.355243773150008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.75571148212126</v>
+        <v>3.611347477816996</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.33359923729541</v>
+        <v>-15.73287558132374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1073646178611298</v>
+        <v>-0.8439290142623932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39.60853858812318</v>
+        <v>-2.01500372914868</v>
       </c>
       <c r="B11" t="n">
-        <v>-45.04104654887719</v>
+        <v>-25.76902237164192</v>
       </c>
       <c r="C11" t="n">
-        <v>25.44283379887685</v>
+        <v>-10.39586599902989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.39290519578826</v>
+        <v>11.75571148212126</v>
       </c>
       <c r="B12" t="n">
-        <v>-25.75901896854879</v>
+        <v>-16.33359923729541</v>
       </c>
       <c r="C12" t="n">
-        <v>6.399868327485425</v>
+        <v>0.1073646178611298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-34.85155020945177</v>
+        <v>39.60853858812318</v>
       </c>
       <c r="B13" t="n">
-        <v>-10.35765630959052</v>
+        <v>-45.04104654887719</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.708384362903586</v>
+        <v>25.44283379887685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.052037713090453</v>
+        <v>-21.39290519578826</v>
       </c>
       <c r="B14" t="n">
-        <v>-12.47812661616762</v>
+        <v>-25.75901896854879</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7732271075954033</v>
+        <v>6.399868327485425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22.74343358553365</v>
+        <v>-34.85155020945177</v>
       </c>
       <c r="B15" t="n">
-        <v>-12.66562087154951</v>
+        <v>-10.35765630959052</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2766472348094</v>
+        <v>-4.708384362903586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21.01473594981556</v>
+        <v>-1.052037713090453</v>
       </c>
       <c r="B16" t="n">
-        <v>-12.33190507719506</v>
+        <v>-12.47812661616762</v>
       </c>
       <c r="C16" t="n">
-        <v>14.17957940750583</v>
+        <v>-0.7732271075954033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4384320727466777</v>
+        <v>22.74343358553365</v>
       </c>
       <c r="B17" t="n">
-        <v>-30.00794573225216</v>
+        <v>-12.66562087154951</v>
       </c>
       <c r="C17" t="n">
-        <v>5.117792562620172</v>
+        <v>10.2766472348094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.731652502477468</v>
+        <v>21.01473594981556</v>
       </c>
       <c r="B18" t="n">
-        <v>-23.00902230076561</v>
+        <v>-12.33190507719506</v>
       </c>
       <c r="C18" t="n">
-        <v>-15.75403659865687</v>
+        <v>14.17957940750583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-8.11227344761256</v>
+        <v>0.4384320727466777</v>
       </c>
       <c r="B19" t="n">
-        <v>5.674290752974979</v>
+        <v>-30.00794573225216</v>
       </c>
       <c r="C19" t="n">
-        <v>-28.99636612841348</v>
+        <v>5.117792562620172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-38.96337933512132</v>
+        <v>1.731652502477468</v>
       </c>
       <c r="B20" t="n">
-        <v>-34.5937611280813</v>
+        <v>-23.00902230076561</v>
       </c>
       <c r="C20" t="n">
-        <v>3.551583487606536</v>
+        <v>-15.75403659865687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-8.11227344761256</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.674290752974979</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-28.99636612841348</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-38.96337933512132</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-34.5937611280813</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.551583487606536</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-22.12481265378448</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-36.7449983704023</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>14.93422636336839</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.603906876942109</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-6.532943116137262</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.020883938264563</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.676244735717717</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-14.42456348125731</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.205562151395338</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-8.344637724069424</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-29.37389576646717</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.180637551482669</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-18.19668616345639</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.7442300390208842</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.97852061345025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-38.98753061238127</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-23.6091353738096</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.86452339668957</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-29.63654207760074</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-38.7297830186655</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.44472347208752</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-12.67720028352449</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-6.331371307373074</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.991470156336736</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15.31067461092843</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-20.30018748898473</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.22906570886048</v>
       </c>
     </row>
   </sheetData>
